--- a/story/主线剧情/main/level_main_08-03_end.xlsx
+++ b/story/主线剧情/main/level_main_08-03_end.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
   <si>
     <t>zh_CN</t>
   </si>
@@ -22,6 +22,12 @@
     <t>ja_JP</t>
   </si>
   <si>
+    <t>en_US</t>
+  </si>
+  <si>
+    <t>ko_KR</t>
+  </si>
+  <si>
     <t xml:space="preserve">[name="感染者纠察队"]  呃呃呃呃呃呃！！
 </t>
   </si>
@@ -395,6 +401,382 @@
   </si>
   <si>
     <t xml:space="preserve">[name="アリーナ"] そうね、タルラ。そう自分に言い聞かせてあげて。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Patrol Unit"]  Nggaaaaah! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Patrol Unit"]  Aahh... aaaaaahh! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] Talulah...! You... ngh...! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] Is that fire your doing!? You’re the one who set them alight... guh! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Alina, I’m sorry. This will surely mean even worse to come for the village. But I just couldn’t stand it.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] I just couldn’t stand this sort of...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] ...Alina?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facing her, Talulah was taken aback. Alina met her gaze with an expression she’d never seen her wear before. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] There’s a fire in your eyes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] I knew from the moment you came to this village, you’d never be willing just to stay here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] You came from somewhere. Where you came from, you’ll go back to. This village can’t hold you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] I won’t go back. Don’t look at me like that... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] But within your eyes, truly, there’s a fire.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] You wanted to set something alight, burn it away, you thought none of this was how it should be, you bore it until you could bear it no more...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] It shouldn’t have been now, Talulah. Not now. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] The villagers are innocent. Your one flare of anger only served to hurt them. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Patrol Unit"]  What happened—oh, God! What the hell is going on?! Who!? Who did this!?   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Woman"] Talulah! Talulah! Run, now, run! And don’t look back! Don’t ever come back!     
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Woman"] Blessings, your Majesty, bless this girl like my daughter, bless her to live on, bless her so she can live on! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] Talulah, we need to go!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] No... those hideous patrolmen!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] We’re Infected, but none of the villagers are!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] ...What did you say?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] I’m Infected too, Talulah. I’m Infected too. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] *Pant*, *pant*... This is... where we’d planned to move. We had everything ready... but... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] They... The old man was...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] We can’t let them do this again... we can’t let them...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] He saved you, saved me, saved the whole village.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] You threw... his whole plan into disarray.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] What do you even mean? The villagers were the ones who— 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] ...Wait. You mean the one who turned him in... was... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] It was his idea. That way, the Patrol wouldn’t come again, and hopefully, that would’ve been that. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] No matter how much strength you have, you can’t resist the Patrol Unit.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] I can.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] And then? What if the Gendarmerie came? What if the city’s garrisons and all the nobles’ soldiers came?  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] We just don’t have the firepower. Once we’ve accumulated enough strength...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Because it’s not right. It’s not right! We can’t just look on like this! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] All these wicked things right before our eyes, but we turn away, just to save ourselves?! That’s not right!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] ...That’s selfish. Heartless, even.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] If righteousness can only be upheld by greater and greater violence, how can it even be considered righteous?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] I can’t answer these questions of yours, Talulah. You’ve studied more than I have, that I know. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] But someone died today in the village. And no more ought to die. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] You’re so clever. You can understand that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] Now, go, Talulah!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] ...I’ll be back.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] Tell yourself that, Talulah. Tell yourself that. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 감시팀"]  으으윽!!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 감시팀"]  으윽…… 으아악!!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"] 탈룰라……! 너…… 윽……!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"] 네가 불을 지른 거야? 저들을 태운 것도…… 윽!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 알리나, 미안해. 이번 일로 마을에 피해를 줄 수 있다는 걸 알지만 더는 참을 수 없어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 이런 일, 더는……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] ……알리나?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">알리나를 바라보는 탈룰라의 표정이 경악으로 물들었다. 그건 탈룰라 자신도 본 적 없는, 낯선 눈빛의 알리나였다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"] 네 눈 속에서 불덩이가 보여.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"] 네가 마을에 온 순간부터 네가 여기에 오래 머물지 않으리라는 걸 알고 있었어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"] 네가 있던 곳으로 돌아가, 여긴 네가 있을 곳이 아니야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 돌아가지 않을 거야, 그런 눈빛으로 쳐다보지 마……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"] 하지만 네 눈 속에서 불덩이가 보여.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"] 넌 뭐든 태워버리고 파괴해 버리려 해. 이 모든 게 잘못됐다고 생각하니까. 그렇게 참고 참다가 결국엔……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"] 하지만 지금은 아니야, 탈룰라. 지금은 아니라고.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"] 마을 사람들은 죄가 없어, 순간의 분노로 사람들을 다치게 하지 마.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 감시팀"]  무슨 일…… 헉, 대체 무슨 일이 있었던 거지? 누구냐? 누가 이런 짓을 저지른 거냐!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="할머니"] 탈룰라, 어서 도망쳐! 다시는 돌아오지 말고 어서 도망쳐라, 어서!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="할머니"] 폐하, 부디 제 딸과 같은 저 아이를 지켜 주십시오. 저 아이가 살아남을 수 있게, 잘 살아갈 수 있게 지켜주십시오!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"] 탈룰라, 어서 가자!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 이렇게는 갈 수 없어, 저놈들은 안 돼……!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"] 우린 감염자야, 마을 사람들은 아니고!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] ……그게 무슨 말이야?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"] 탈룰라, 나도 감염자야. 나도 감염됐다고.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"] 헉, 헉…… 여긴…… 우리가 옮겨가려던 곳이야. 일단 장소는 확보했는데……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 놈들이…… 할아버지를……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 저대로 둘 수 없어…… 더는 안 돼……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"] 할아버지는 너를 구하려고 그러신 거야. 나를 비롯해 마을 사람들을 구하기 위해서……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"] 그런데 네가…… 할아버지의 계획을 망쳤어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 무슨 말이야? 마을 사람들이 할아버지를 밀고한……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] ……잠깐. 그러니까 할아버지를 밀고한 사람이……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"] 그래, 할아버지가 하신 거야. 그래야 감시팀이 수색을 멈출 테니까, 예상대로라면 그렇게 됐을 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"] 네가 아무리 대단해도 감시팀을 이길 수는 없어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 그렇지 않아.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"] 그럼 그다음에는? 헌병이 오면 어쩔 거지? 시내의 주둔군과 귀족들의 병력까지 들이닥치면?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 힘이 부족한 것뿐이니까 일단 충분히 힘을 기르면……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 아니 그렇지 않아. 그렇게 할 수 있는 일이 아니야!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 목숨을 부지하려고 눈앞의 불의를 모른 척할 순 없어!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] ……그런 건 이기적이야, 무자비한 짓이라고.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] 정의를 실천하는 데 더 많은 폭력이 동원되어야 한다면 그걸 어떻게 정의라고 할 수 있겠어?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"] 뭐라고 대답해야 할지 모르겠어. 탈룰라, 넌 나보다 공부도 많이 했잖아.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"] 하지만 오늘 마을에서 누군가 이미 목숨을 잃었어, 더는 사람들을 죽게 만들 순 없어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"] 넌 똑똑하니까 무슨 뜻인지 알 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"] 가자, 탈룰라!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"] ……돌아올 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"] 그 말은 네게 들려줘, 너 자신에게 말이야.
 </t>
   </si>
 </sst>
@@ -753,394 +1135,682 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" t="s">
+        <v>135</v>
+      </c>
+      <c r="D39" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" t="s">
+        <v>141</v>
+      </c>
+      <c r="D45" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" t="s">
+        <v>142</v>
+      </c>
+      <c r="D46" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" t="s">
+        <v>143</v>
+      </c>
+      <c r="D47" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="C48" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
